--- a/plan/W文档/Z主界面.xlsx
+++ b/plan/W文档/Z主界面.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,18 +56,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗一定量的相同卡牌达到升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>觉醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗“觉醒材料”来觉醒，需要达到一定等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二次觉醒定为与一觉不同的“飞升”？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +193,146 @@
   </si>
   <si>
     <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到一定经验升级，最高40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗一定量的相同卡牌达到升星，最高6星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗“觉醒材料”，20、30级可觉醒，觉醒增加一个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一配置一张技能表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白、蓝、紫、金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础技能、觉醒技能、联合技能、师徒技能、夫妻技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理技能、法术技能、道具技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能、被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5级一种等级的装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能、多体技能、群体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害、法术伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +383,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,12 +413,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,21 +742,21 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -626,7 +772,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
@@ -634,34 +780,37 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
@@ -669,6 +818,9 @@
       <c r="C8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -676,73 +828,69 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
@@ -750,6 +898,12 @@
       <c r="C14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
@@ -757,96 +911,145 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="1" t="s">
-        <v>24</v>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="1"/>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="1"/>
+      <c r="K23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -856,7 +1059,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
@@ -864,37 +1067,138 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I31" s="2"/>
+      <c r="L31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="I32" s="2"/>
+      <c r="L32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="I33" s="2"/>
+      <c r="L33" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="I34" s="2"/>
+      <c r="L34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="L35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I36" s="2"/>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I37" s="2"/>
+      <c r="L37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I51" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:B30"/>
-    <mergeCell ref="I4:I27"/>
+    <mergeCell ref="I4:I51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/W文档/Z主界面.xlsx
+++ b/plan/W文档/Z主界面.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器，上衣，下衣，鞋子，头饰，项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,14 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达到一定经验升级，最高40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗一定量的相同卡牌达到升星，最高6星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗“觉醒材料”，20、30级可觉醒，觉醒增加一个技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每5级一种等级的装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,6 +318,29 @@
   <si>
     <t>物理伤害、法术伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到一定经验升级，最高40（同阴阳师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗一定量的相同卡牌达到升星，最高6星（同阴阳师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5级一种等级的装备（卡牌等级&gt;装备等级可用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器（命中、伤害），衣服（防御）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带（气血、防御），头饰（防御、魔法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子（防御、敏捷），项链（灵力）</t>
   </si>
 </sst>
 </file>
@@ -416,11 +423,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,6 +444,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>导出测试</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,11 +807,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,470 +820,506 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="K21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1"/>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="K24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1"/>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
       <c r="C25" s="1"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="1"/>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
       <c r="C28" s="1"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
       <c r="C29" s="1"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
       <c r="C30" s="1"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C31" s="1"/>
+      <c r="G31" s="4"/>
+      <c r="J31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C32" s="1"/>
+      <c r="G32" s="4"/>
+      <c r="J32" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="K32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="J33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="1"/>
-      <c r="I31" s="2"/>
-      <c r="L31" s="4" t="s">
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C34" s="1"/>
+      <c r="G34" s="4"/>
+      <c r="J34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="L32" t="s">
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C35" s="1"/>
+      <c r="G35" s="4"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+      <c r="J36" t="s">
         <v>57</v>
       </c>
-      <c r="M32" t="s">
+      <c r="K36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C33" s="1"/>
-      <c r="I33" s="2"/>
-      <c r="L33" t="s">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+      <c r="J37" t="s">
         <v>58</v>
       </c>
-      <c r="M33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="1"/>
-      <c r="I34" s="2"/>
-      <c r="L34" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="1"/>
-      <c r="I35" s="2"/>
-      <c r="L35" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I36" s="2"/>
-      <c r="L36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I37" s="2"/>
-      <c r="L37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I51" s="2"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:B30"/>
-    <mergeCell ref="I4:I51"/>
+    <mergeCell ref="G4:G51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!mysub">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>647700</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/plan/W文档/Z主界面.xlsx
+++ b/plan/W文档/Z主界面.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,13 +342,89 @@
   </si>
   <si>
     <t>鞋子（防御、敏捷），项链（灵力）</t>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通物理攻击目标1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（必带）普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（必带）防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（必带）一般技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色觉醒后可使用，原则上为角色特有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能消耗MP，个别技能消耗HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能包含：伤害型，封印型，buff型，debuff型，治愈型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放防御后，到下次行动前，受到的伤害减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个角色拥有若干一般技能，其中可能包含被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-40级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验足够则可自动升到下一级，属性提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每升一星，属性提升25%。消耗一定量的相同卡牌达到升星（同阴阳师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒后开放觉醒技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +455,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -420,7 +504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -428,6 +512,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -811,8 +896,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,4 +1407,111 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>